--- a/src/test_data/Booking.xlsx
+++ b/src/test_data/Booking.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\MiroslavPalackovic\Desktop\POM\src\test_data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1172A3B9-B059-4259-AE28-48DFEC51A2F3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{054D5A5F-5959-47AC-A8FA-0A2DDA7CFBC1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-26400" yWindow="2055" windowWidth="22980" windowHeight="12195" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="BookingSheet" sheetId="1" r:id="rId1"/>
+    <sheet name="ChildData" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -24,8 +25,42 @@
 </workbook>
 </file>
 
+<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author>Miroslav Palackovic</author>
+  </authors>
+  <commentList>
+    <comment ref="H2" authorId="0" shapeId="0" xr:uid="{DEB80CDA-BB24-43C3-9219-0838FC77E1CF}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Miroslav Palackovic:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Add child id from ChildData sheet or leave empty</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126" uniqueCount="69">
   <si>
     <t>BookingHomePage</t>
   </si>
@@ -48,24 +83,12 @@
     <t>AdultsNum</t>
   </si>
   <si>
-    <t>ChildrenNum</t>
-  </si>
-  <si>
     <t>RoomsNum</t>
   </si>
   <si>
-    <t>ChildAges</t>
-  </si>
-  <si>
     <t>Kopaonik</t>
   </si>
   <si>
-    <t>February</t>
-  </si>
-  <si>
-    <t>27</t>
-  </si>
-  <si>
     <t>March</t>
   </si>
   <si>
@@ -75,23 +98,182 @@
     <t>2</t>
   </si>
   <si>
-    <t>3 years old,9 years old</t>
-  </si>
-  <si>
-    <t>29</t>
-  </si>
-  <si>
     <t>26</t>
   </si>
   <si>
-    <t>0</t>
+    <t>TC ID</t>
+  </si>
+  <si>
+    <t>10</t>
+  </si>
+  <si>
+    <t>12</t>
+  </si>
+  <si>
+    <t>April</t>
+  </si>
+  <si>
+    <t>14</t>
+  </si>
+  <si>
+    <t>28</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>0 years old</t>
+  </si>
+  <si>
+    <t>3 years old</t>
+  </si>
+  <si>
+    <t>5 years old</t>
+  </si>
+  <si>
+    <t>Child1Name</t>
+  </si>
+  <si>
+    <t>Child1LastName</t>
+  </si>
+  <si>
+    <t>Child2Name</t>
+  </si>
+  <si>
+    <t>Child2LastName</t>
+  </si>
+  <si>
+    <t>Child3Name</t>
+  </si>
+  <si>
+    <t>Child3LastName</t>
+  </si>
+  <si>
+    <t>Children</t>
+  </si>
+  <si>
+    <t>Child_ID</t>
+  </si>
+  <si>
+    <t>Child_0002</t>
+  </si>
+  <si>
+    <t>Child_0003</t>
+  </si>
+  <si>
+    <t>TC_ID_0001</t>
+  </si>
+  <si>
+    <t>TC_ID_0002</t>
+  </si>
+  <si>
+    <t>TC_ID_0003</t>
+  </si>
+  <si>
+    <t>Child_0001,Child_0002</t>
+  </si>
+  <si>
+    <t>Child Data</t>
+  </si>
+  <si>
+    <t>Child_Age</t>
+  </si>
+  <si>
+    <t>Child_Name</t>
+  </si>
+  <si>
+    <t>Child_LastName</t>
+  </si>
+  <si>
+    <t>Child_0001</t>
+  </si>
+  <si>
+    <t>TC_ID_0004</t>
+  </si>
+  <si>
+    <t>15</t>
+  </si>
+  <si>
+    <t>May</t>
+  </si>
+  <si>
+    <t>3</t>
+  </si>
+  <si>
+    <t>TC_ID_0005</t>
+  </si>
+  <si>
+    <t>16</t>
+  </si>
+  <si>
+    <t>June</t>
+  </si>
+  <si>
+    <t>4</t>
+  </si>
+  <si>
+    <t>TC_ID_0006</t>
+  </si>
+  <si>
+    <t>17</t>
+  </si>
+  <si>
+    <t>July</t>
+  </si>
+  <si>
+    <t>TC_ID_0007</t>
+  </si>
+  <si>
+    <t>18</t>
+  </si>
+  <si>
+    <t>August</t>
+  </si>
+  <si>
+    <t>TC_ID_0008</t>
+  </si>
+  <si>
+    <t>19</t>
+  </si>
+  <si>
+    <t>September</t>
+  </si>
+  <si>
+    <t>TC_ID_0009</t>
+  </si>
+  <si>
+    <t>20</t>
+  </si>
+  <si>
+    <t>October</t>
+  </si>
+  <si>
+    <t>TC_ID_0010</t>
+  </si>
+  <si>
+    <t>November</t>
+  </si>
+  <si>
+    <t>TC_ID_0011</t>
+  </si>
+  <si>
+    <t>22</t>
+  </si>
+  <si>
+    <t>December</t>
+  </si>
+  <si>
+    <t>Child_0003,Child_0001</t>
+  </si>
+  <si>
+    <t>Child_003</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -106,6 +288,25 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <charset val="1"/>
     </font>
   </fonts>
   <fills count="3">
@@ -122,7 +323,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="5">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -155,19 +356,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color indexed="64"/>
       </left>
@@ -186,18 +374,17 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="4" xfId="0" quotePrefix="1" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="3" xfId="0" quotePrefix="1" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" quotePrefix="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="49" fontId="1" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
   </cellXfs>
@@ -479,127 +666,481 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I4"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:I13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="L4" sqref="L4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="9" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="17.77734375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="19.33203125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="10.6640625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="12.44140625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="11" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="20.109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="13.44140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="17.77734375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="19.33203125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10.6640625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="19.44140625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="11" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A1" s="4" t="s">
+      <c r="A1" s="5"/>
+      <c r="B1" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="5"/>
-      <c r="C1" s="5"/>
-      <c r="D1" s="5"/>
-      <c r="E1" s="5"/>
-      <c r="F1" s="5"/>
-      <c r="G1" s="5"/>
-      <c r="H1" s="5"/>
-      <c r="I1" s="6"/>
+      <c r="C1" s="7"/>
+      <c r="D1" s="7"/>
+      <c r="E1" s="7"/>
+      <c r="F1" s="7"/>
+      <c r="G1" s="7"/>
+      <c r="H1" s="7"/>
+      <c r="I1" s="7"/>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A2" s="1" t="s">
+      <c r="A2" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="B2" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="C2" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="D2" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="E2" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="E2" s="1" t="s">
+      <c r="F2" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="F2" s="1" t="s">
+      <c r="G2" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="G2" s="1" t="s">
+      <c r="H2" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="I2" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="H2" s="1" t="s">
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A3" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="B3" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="I2" s="1" t="s">
+      <c r="C3" s="2" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A3" s="2" t="s">
+      <c r="D3" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="F3" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="G3" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="C3" s="3" t="s">
+      <c r="H3" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="I3" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A4" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="F4" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="D3" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="E3" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="F3" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="G3" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="H3" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="I3" s="2" t="s">
+      <c r="G4" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="H4" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="I4" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A5" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="E5" s="2" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A4" s="2" t="s">
+      <c r="F5" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="G5" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="H5" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="I5" s="3" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A6" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="F6" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="G6" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="H6" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="I6" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A7" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="F7" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="G7" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="H7" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="I7" s="3" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A8" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="F8" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="G8" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="H8" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="I8" s="3" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A9" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="D9" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="E9" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="F9" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="G9" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="H9" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="I9" s="3" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A10" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="D10" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="E10" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="F10" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="G10" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="H10" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="I10" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A11" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="D11" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="E11" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="F11" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="G11" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="H11" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="I11" s="3" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A12" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="D12" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="B4" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="C4" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="E4" s="3" t="s">
+      <c r="E12" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="F12" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="F4" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="G4" s="3" t="s">
+      <c r="G12" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="H4" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="I4" s="2"/>
+      <c r="H12" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="I12" s="3" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A13" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="D13" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="E13" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="F13" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="G13" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="H13" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="I13" s="3" t="s">
+        <v>19</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="A1:I1"/>
+    <mergeCell ref="B1:I1"/>
   </mergeCells>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <legacyDrawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D5A91E47-9380-434E-BCBD-A692BE9EB8D0}">
+  <dimension ref="A1:D5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D11" sqref="D11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="8.88671875" customWidth="1"/>
+    <col min="2" max="2" width="10.77734375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.5546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1" s="5"/>
+      <c r="B1" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="C1" s="7"/>
+      <c r="D1" s="7"/>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A3" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A4" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A5" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>28</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="B1:D1"/>
+  </mergeCells>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>